--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1722,12 +1722,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1788,12 +1788,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1832,12 +1832,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1854,12 +1854,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francja </t>
+          <t>Francja</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">22.11.2022 - Francja  -  Australia </t>
+          <t>22.11.2022 - Francja - Australia</t>
         </is>
       </c>
     </row>
@@ -2124,6 +2124,820 @@
       <c r="D77" t="inlineStr">
         <is>
           <t>22.11.2022 - Meksyk  -  Polska</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Belgia</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Belgia - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Japonia</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>23.11.2022 - Niemcy - Japonia</t>
         </is>
       </c>
     </row>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2941,6 +2941,798 @@
         </is>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Brazylia - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Portugalia - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,7 +2196,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Tomasz</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2218,7 +2218,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Michał</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2240,7 +2240,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Bogusław</t>
+          <t>Michał</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2262,7 +2262,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Maciej</t>
+          <t>Bogusław</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2306,12 +2306,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Belgia</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2328,29 +2328,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Mateusz</t>
+          <t>Gerard</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hiszpania</t>
+          <t>Remis</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Hiszpania</t>
+          <t>Belgia</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>23.11.2022 - Hiszpania - Kostaryka</t>
+          <t>23.11.2022 - Belgia - Kanada</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bartosz</t>
+          <t>Mateusz</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2372,7 +2372,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Łukasz</t>
+          <t>Bartosz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2394,7 +2394,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Łukasz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Michał</t>
+          <t>Tomasz</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bogusław</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Maciej</t>
+          <t>Michał</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2482,7 +2482,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Bogusław</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2504,7 +2504,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2526,51 +2526,51 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bartosz</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Chorwacja</t>
+          <t>Hiszpania</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Hiszpania</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>23.11.2022 - Maroko - Chorwacja</t>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Łukasz</t>
+          <t>Gerard</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chorwacja</t>
+          <t>Hiszpania</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Hiszpania</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>23.11.2022 - Maroko - Chorwacja</t>
+          <t>23.11.2022 - Hiszpania - Kostaryka</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tomasz</t>
+          <t>Bartosz</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2592,7 +2592,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Łukasz</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2614,7 +2614,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Michał</t>
+          <t>Tomasz</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2636,7 +2636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bogusław</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2658,12 +2658,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Maciej</t>
+          <t>Michał</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Chorwacja</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>Bogusław</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2702,12 +2702,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Chorwacja</t>
+          <t>Remis</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2724,51 +2724,51 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Mateusz</t>
+          <t>Gerard</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Niemcy</t>
+          <t>Chorwacja</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Japonia</t>
+          <t>Remis</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>23.11.2022 - Niemcy - Japonia</t>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Bartosz</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Niemcy</t>
+          <t>Chorwacja</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Japonia</t>
+          <t>Remis</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>23.11.2022 - Niemcy - Japonia</t>
+          <t>23.11.2022 - Maroko - Chorwacja</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Łukasz</t>
+          <t>Mateusz</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2790,7 +2790,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Tomasz</t>
+          <t>Bartosz</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2812,12 +2812,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Łukasz</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Niemcy</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2834,7 +2834,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Michał</t>
+          <t>Tomasz</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2856,12 +2856,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bogusław</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Niemcy</t>
+          <t>Remis</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Maciej</t>
+          <t>Michał</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2900,7 +2900,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>Bogusław</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2922,7 +2922,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2944,51 +2944,51 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Gerard</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Brazylia</t>
+          <t>Niemcy</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Brazylia</t>
+          <t>Japonia</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>24.11.2022 - Brazylia - Serbia</t>
+          <t>23.11.2022 - Niemcy - Japonia</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Brazylia</t>
+          <t>Niemcy</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Brazylia</t>
+          <t>Japonia</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>24.11.2022 - Brazylia - Serbia</t>
+          <t>23.11.2022 - Niemcy - Japonia</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Maciej</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3010,7 +3010,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Bogusław</t>
+          <t>Gerard</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3032,7 +3032,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Łukasz</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3054,7 +3054,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Tomasz</t>
+          <t>Bogusław</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Bartosz</t>
+          <t>Łukasz</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Michał</t>
+          <t>Tomasz</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3120,7 +3120,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mateusz</t>
+          <t>Bartosz</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3142,7 +3142,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Michał</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3164,56 +3164,56 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Maciej</t>
+          <t>Mateusz</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Brazylia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Portugalia</t>
+          <t>Brazylia</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>24.11.2022 - Portugalia - Ghana</t>
+          <t>24.11.2022 - Brazylia - Serbia</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Bogusław</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Portugalia</t>
+          <t>Brazylia</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Portugalia</t>
+          <t>Brazylia</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>24.11.2022 - Portugalia - Ghana</t>
+          <t>24.11.2022 - Brazylia - Serbia</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Łukasz</t>
+          <t>Maciej</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Portugalia</t>
+          <t>Remis</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Bartosz</t>
+          <t>Bogusław</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Michał</t>
+          <t>Łukasz</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3274,7 +3274,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Mateusz</t>
+          <t>Bartosz</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3296,7 +3296,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Michał</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>Mateusz</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Tomasz</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3362,7 +3362,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Gerard</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3384,56 +3384,56 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Michał</t>
+          <t>Tomasz</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Szwajcaria</t>
+          <t>Portugalia</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Szwajcaria</t>
+          <t>Portugalia</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+          <t>24.11.2022 - Portugalia - Ghana</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Mateusz</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Szwajcaria</t>
+          <t>Portugalia</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Szwajcaria</t>
+          <t>Portugalia</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>24.11.2022 - Szwajcaria - Kamerun</t>
+          <t>24.11.2022 - Portugalia - Ghana</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Michał</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Szwajcaria</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3450,7 +3450,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Bogusław</t>
+          <t>Mateusz</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3494,7 +3494,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Tomasz</t>
+          <t>Bogusław</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3516,12 +3516,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Aleksandra</t>
+          <t>Gerard</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Szwajcaria</t>
+          <t>Remis</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3538,51 +3538,51 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Bogusław</t>
+          <t>Tomasz</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Urugwaj</t>
+          <t>Szwajcaria</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Szwajcaria</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Łukasz</t>
+          <t>Aleksandra</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Szwajcaria</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Remis</t>
+          <t>Szwajcaria</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+          <t>24.11.2022 - Szwajcaria - Kamerun</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Bartosz</t>
+          <t>Bogusław</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3604,12 +3604,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Michał</t>
+          <t>Łukasz</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Urugwaj</t>
+          <t>Remis</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3626,7 +3626,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Mateusz</t>
+          <t>Bartosz</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Hubert</t>
+          <t>Michał</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Gerard</t>
+          <t>Mateusz</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Tomasz</t>
+          <t>Hubert</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3714,22 +3714,2596 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Urugwaj</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>Aleksandra</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Urugwaj</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Remis</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
         <is>
           <t>24.11.2022 - Urugwaj - Korea Płd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Holandia - Ekwador</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Katar - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Walia</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Walia</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Walia</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Walia</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Walia</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Walia</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Walia - Iran</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>25.11.2022 - Anglia - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentyna    </t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentyna    </t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentyna    </t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentyna    </t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentyna    </t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentyna    </t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentyna    </t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argentyna    </t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Argentyna</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Argentyna - Meksyk</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francja   </t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Francja</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Francja - Dania</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polska  </t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polska  </t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polska  </t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polska  </t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polska  </t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polska  </t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polska  </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polska  </t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Arabia Saudyjska</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Arabia Saudyjska</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Polska</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Polska - Arabia Saudyjska</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tunezja </t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tunezja </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tunezja </t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>26.11.2022 - Tunezja - Australia</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belgia  </t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belgia  </t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belgia  </t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belgia  </t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belgia  </t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Belgia  </t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Belgia - Maroko</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorwacja   </t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorwacja   </t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorwacja   </t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Kanada</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorwacja   </t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chorwacja   </t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Kanada</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Chorwacja</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Chorwacja - Kanada</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiszpania </t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Niemcy</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiszpania </t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiszpania </t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiszpania </t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiszpania </t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiszpania </t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Hiszpania - Niemcy</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Japonia </t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Kostaryka</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>27.11.2022 - Japonia - Kostaryka</t>
         </is>
       </c>
     </row>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6307,6 +6307,842 @@
         </is>
       </c>
     </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Brazylia</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Brazylia - Szwajcaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Kamerun - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Kamerun - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Kamerun - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Kamerun - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Kamerun - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Kamerun - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Kamerun</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Kamerun - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Kamerun</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Kamerun - Serbia</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Korea Płd.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Korea Płd.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Korea Płd.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Korea Płd. - Ghana</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>28.11.2022 - Portugalia - Urugwaj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7143,6 +7143,886 @@
         </is>
       </c>
     </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Ekwador</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Ekwador</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Ekwador - Senegal</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Holandia</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Holandia - Katar</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Iran</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Iran - USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Anglia</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>29.11.2022 - Walia - Anglia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9747,7 +9747,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Argentyna</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11650,6 +11650,424 @@
       <c r="D510" t="inlineStr">
         <is>
           <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Maroko</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Hiszpania</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Maroko - Hiszpania</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Bartosz</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Tomasz</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Remis</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Bogusław</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Maciej</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Szwajcaria</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Łukasz</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Gerard</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Mateusz</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Hubert</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Aleksandra</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Michał</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>6.12.2022 - Portugalia - Szwajcaria</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Portugalia</t>
         </is>
       </c>
     </row>
